--- a/backend/saProject/saProj/드시모네_리뷰_데이터.xlsx
+++ b/backend/saProject/saProj/드시모네_리뷰_데이터.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="리뷰데이터요약" sheetId="1" r:id="rId1"/>
-    <sheet name="드시모네 365 캡슐" sheetId="2" r:id="rId2"/>
-    <sheet name="드시모네 키즈 프리미엄+츄어블 플러스 세트" sheetId="3" r:id="rId3"/>
+    <sheet name="드시모네 키즈 프리미엄" sheetId="2" r:id="rId2"/>
+    <sheet name="드시모네 1200 (2개월분)" sheetId="3" r:id="rId3"/>
+    <sheet name="드시모네 4500 (30포)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>상품명</t>
   </si>
@@ -39,21 +40,21 @@
     <t>기타</t>
   </si>
   <si>
-    <t>드시모네 프라임</t>
-  </si>
-  <si>
-    <t>드시모네 키즈 프리미엄+츄어블 플러스 세트</t>
-  </si>
-  <si>
-    <t>드시모네 365 캡슐</t>
+    <t>드시모네 키즈 프리미엄</t>
+  </si>
+  <si>
+    <t>드시모네 1200 (2개월분)</t>
+  </si>
+  <si>
+    <t>드시모네 4500 (30포)</t>
+  </si>
+  <si>
+    <t>100.0%</t>
   </si>
   <si>
     <t>0.0%</t>
   </si>
   <si>
-    <t>리뷰가 없습니다.</t>
-  </si>
-  <si>
     <t>리뷰 번호</t>
   </si>
   <si>
@@ -75,130 +76,52 @@
     <t>긍정/부정</t>
   </si>
   <si>
-    <t>백*현</t>
-  </si>
-  <si>
-    <t>김*경</t>
-  </si>
-  <si>
-    <t>안*현</t>
-  </si>
-  <si>
-    <t>전*찬</t>
-  </si>
-  <si>
-    <t>허*순</t>
-  </si>
-  <si>
-    <t>오*철</t>
-  </si>
-  <si>
-    <t>김*현</t>
-  </si>
-  <si>
-    <t>김*선</t>
-  </si>
-  <si>
-    <t>송*정</t>
-  </si>
-  <si>
-    <t>조*두</t>
-  </si>
-  <si>
-    <t>조*기</t>
-  </si>
-  <si>
-    <t>서*라</t>
-  </si>
-  <si>
-    <t>신*영</t>
-  </si>
-  <si>
-    <t>드시모네 365 포도향 구매</t>
-  </si>
-  <si>
-    <t>좋아요.</t>
+    <t>이*희</t>
+  </si>
+  <si>
+    <t>신*정</t>
+  </si>
+  <si>
+    <t>늘먹던상품</t>
+  </si>
+  <si>
+    <t>또박배송으로 1년넘게 **중입니다~</t>
+  </si>
+  <si>
+    <t>늘먹던상품아이가 이걸로바꾸고 크게좋아진느낌은없지만 그래도 믿고먹입니다여기는 제품은좋은데 서비스의질이떨어지고 상담 직원이문제입니다. 좋은제품 이미지른다깎아먹네요특히 상담원 **이 시급하다고생각합니다..</t>
+  </si>
+  <si>
+    <t>또박배송으로 1년넘게 **중입니다~** 좋아요  계속 구매예정입니다~</t>
+  </si>
+  <si>
+    <t>긍정</t>
+  </si>
+  <si>
+    <t>박*정</t>
   </si>
   <si>
     <t>좋아요~</t>
   </si>
   <si>
-    <t>매일 꾸준히 먹고 있어요!</t>
-  </si>
-  <si>
-    <t>안녕하세요</t>
-  </si>
-  <si>
-    <t>어머니가 좋아하는 드시모네 365</t>
-  </si>
-  <si>
-    <t>새롭게 구입해 보았습니다.</t>
-  </si>
-  <si>
-    <t>잘 먹고 있습니다</t>
-  </si>
-  <si>
-    <t>제품 사용추기</t>
-  </si>
-  <si>
-    <t>재구매 들어갑니다</t>
-  </si>
-  <si>
-    <t>목넘김이 편하고 좋아요</t>
-  </si>
-  <si>
-    <t>제품은 좋은데 박스가 엉터리네요ㅠㅠ</t>
-  </si>
-  <si>
-    <t>아이들이 자꾸 찾는 유산균</t>
-  </si>
-  <si>
-    <t>드시모네 365 포도향 구매부모님께서 드시고 계신데 **가 좋으시다고 재구매 했습니다.</t>
-  </si>
-  <si>
-    <t>좋아요.초3아이가 가루형태는 먹기힘들다해서 캡슐로 주문하니 매일꼬박꼬박 잘먹어요. 화장실가는것도 먹기전보다좋아졌다 하더라구요. 이번에 또박정기결제등록했어요. 꾸준히 먹이려구요.</t>
-  </si>
-  <si>
-    <t>좋아요~잘먹고있어요아이가좋아해요</t>
-  </si>
-  <si>
-    <t>매일 꾸준히 먹고 있어요!캡슐이라 좀 더 간편하게 먹을 수 있는 것 같구요!*통 크기도 컴팩트한 편이라 여러모로 좋은 듯 합니다!</t>
-  </si>
-  <si>
-    <t>안녕하세요안녕하세요 애용중이에요</t>
-  </si>
-  <si>
-    <t>어머니가 좋아하는 드시모네 365어머니가 엄청 좋아하시네요.많이 구매하세요.성능 최고의 제품입니다.</t>
-  </si>
-  <si>
-    <t>새롭게 구입해 보았습니다.기대됩니다. 금번 365 새로 구입해 보았습니다.</t>
-  </si>
-  <si>
-    <t>잘 먹고 있습니다잘 먹고 있습니다꾸준히 먹어야겠습니다</t>
-  </si>
-  <si>
-    <t>제품 사용추기6년째 먹고 있는 유산균온가족이 만족입니다</t>
-  </si>
-  <si>
-    <t>재구매 들어갑니다한통 다 먹구 재구매 합니다</t>
-  </si>
-  <si>
-    <t>목넘김이 편하고 좋아요캡슐이 두꺼우면 목에서 넘어갈 때 걸리는 느낌인데, 드시모네꺼는 작아서 먹기 편해요.드시모네 먹고 화장실도 너무 잘가서 만족스러워요</t>
-  </si>
-  <si>
-    <t>제품은 좋은데 박스가 엉터리네요ㅠㅠ지인 소개로 드시모네 제품 추천받고 주문한 제품 잘 받았어요.  드시모네 기대돼요~웬만하면 그냥 넘어갈려고 했는데 속상해서 글 올려요.아이스팩이 다 녹아서 왔어요.제일 귀찮은건 쓰레기 버릴때 경비아저씨가 박스 안 하얀 비닐 다 뜯어서 버리라고 해서 비닐 뜯고 정리하고 왔어요.제품이 싸지도 않은데 이런 부분은 수정 됐으면 합니다~~</t>
-  </si>
-  <si>
-    <t>아이들이 자꾸 찾는 유산균기존 먹고있는 유산균이 있었는데 아이랑 맞지않아 드시모네를 먹여보았는데, **가 싹 없어졌네요.아이도 변을 볼 때 힘들지 않은지 계속 찾아 먹는 유산균이네요</t>
-  </si>
-  <si>
-    <t>이*현</t>
-  </si>
-  <si>
-    <t>아이가 좋아해요</t>
-  </si>
-  <si>
-    <t>아이가 좋아해요잘 먹이고 또 주문합니다^^</t>
+    <t>좋아요~저희는 부부가 **해야해서 전에는 캡슐로 되어있는 제품을 애용했는데 가루로 리뉴얼 돼서 더 좋네요.이 제품으로 또박배송 하려고 기존 제품 하려고 취소하고 다시해서 전보다 할인률이 작아졌는데캡슐로 이용하시던 다른분은 동일한 할인률로캡슐에서 이제품으로 변경해주셨더라구요.또박배송 취소 할때 상담을 충분하게 해주셨으면 더 좋았을 것 같네요.</t>
+  </si>
+  <si>
+    <t>김*구</t>
+  </si>
+  <si>
+    <t>정*주</t>
+  </si>
+  <si>
+    <t>** ** 받고</t>
+  </si>
+  <si>
+    <t>드시모네</t>
+  </si>
+  <si>
+    <t>** ** 받고진료하신 교수님이 추천해 주셨어요. 장 건강에 도움이 되는 부분은 분명 있습니다.</t>
+  </si>
+  <si>
+    <t>드시모네가격이 부담스럽지만 확실히 매일 먹는데 **가 나타나네요</t>
   </si>
 </sst>
 </file>
@@ -593,7 +516,19 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -611,10 +546,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -622,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -631,10 +566,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -644,7 +579,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -675,262 +610,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>60097</v>
+        <v>60315</v>
       </c>
       <c r="B2">
-        <v>650</v>
+        <v>1298</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2">
-        <v>45239</v>
+        <v>45272</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>59861</v>
+        <v>60353</v>
       </c>
       <c r="B3">
-        <v>650</v>
+        <v>1298</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2">
-        <v>45194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>59628</v>
-      </c>
-      <c r="B4">
-        <v>650</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>59403</v>
-      </c>
-      <c r="B5">
-        <v>650</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>58790</v>
-      </c>
-      <c r="B6">
-        <v>650</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>58677</v>
-      </c>
-      <c r="B7">
-        <v>650</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45061</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>58398</v>
-      </c>
-      <c r="B8">
-        <v>650</v>
-      </c>
-      <c r="C8" t="s">
+        <v>45278</v>
+      </c>
+      <c r="G3" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>58144</v>
-      </c>
-      <c r="B9">
-        <v>650</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="2">
-        <v>44997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>57907</v>
-      </c>
-      <c r="B10">
-        <v>650</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="2">
-        <v>44977</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>57870</v>
-      </c>
-      <c r="B11">
-        <v>650</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="2">
-        <v>44975</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>57866</v>
-      </c>
-      <c r="B12">
-        <v>650</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="2">
-        <v>44974</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>57807</v>
-      </c>
-      <c r="B13">
-        <v>650</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="2">
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>57604</v>
-      </c>
-      <c r="B14">
-        <v>650</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="2">
-        <v>44955</v>
       </c>
     </row>
   </sheetData>
@@ -971,22 +692,98 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>59095</v>
+        <v>60331</v>
       </c>
       <c r="B2">
-        <v>1375</v>
+        <v>2099</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2">
-        <v>45123</v>
+        <v>45275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>60348</v>
+      </c>
+      <c r="B2">
+        <v>2107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>60347</v>
+      </c>
+      <c r="B3">
+        <v>2107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45276</v>
       </c>
     </row>
   </sheetData>

--- a/backend/saProject/saProj/드시모네_리뷰_데이터.xlsx
+++ b/backend/saProject/saProj/드시모네_리뷰_데이터.xlsx
@@ -8,16 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="리뷰데이터요약" sheetId="1" r:id="rId1"/>
-    <sheet name="드시모네 키즈 프리미엄" sheetId="2" r:id="rId2"/>
+    <sheet name="드시모네 베이비 스텝2" sheetId="2" r:id="rId2"/>
     <sheet name="드시모네 1200 (2개월분)" sheetId="3" r:id="rId3"/>
-    <sheet name="드시모네 4500 (30포)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>상품명</t>
   </si>
@@ -40,16 +39,13 @@
     <t>기타</t>
   </si>
   <si>
-    <t>드시모네 키즈 프리미엄</t>
-  </si>
-  <si>
     <t>드시모네 1200 (2개월분)</t>
   </si>
   <si>
-    <t>드시모네 4500 (30포)</t>
-  </si>
-  <si>
-    <t>100.0%</t>
+    <t>드시모네 베이비 스텝2</t>
+  </si>
+  <si>
+    <t>83.33%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -76,52 +72,94 @@
     <t>긍정/부정</t>
   </si>
   <si>
-    <t>이*희</t>
-  </si>
-  <si>
-    <t>신*정</t>
-  </si>
-  <si>
-    <t>늘먹던상품</t>
-  </si>
-  <si>
-    <t>또박배송으로 1년넘게 **중입니다~</t>
-  </si>
-  <si>
-    <t>늘먹던상품아이가 이걸로바꾸고 크게좋아진느낌은없지만 그래도 믿고먹입니다여기는 제품은좋은데 서비스의질이떨어지고 상담 직원이문제입니다. 좋은제품 이미지른다깎아먹네요특히 상담원 **이 시급하다고생각합니다..</t>
-  </si>
-  <si>
-    <t>또박배송으로 1년넘게 **중입니다~** 좋아요  계속 구매예정입니다~</t>
+    <t>김*연</t>
+  </si>
+  <si>
+    <t>서*은</t>
+  </si>
+  <si>
+    <t>김*희</t>
+  </si>
+  <si>
+    <t>서*롱</t>
+  </si>
+  <si>
+    <t>무난해요! 또박배송으로 시키니 저렴해서 이걸로 정착하려구욤</t>
+  </si>
+  <si>
+    <t>12개월 *정 후</t>
+  </si>
+  <si>
+    <t>드시모네 유산균</t>
+  </si>
+  <si>
+    <t>잘먹어요</t>
+  </si>
+  <si>
+    <t>무난해요! 또박배송으로 시키니 저렴해서 이걸로 정착하려구욤15갤 둥이 키우는데이유식 유아식 많이 먹어도 딱히 **는 없어요!장 내 환경이 **에도 영향을 준다고 해서유산균은 신생아때부터 꼭꼭 챙겨먹여요둥이라 또박배송 2번으로 시켰어요~~</t>
+  </si>
+  <si>
+    <t>12개월 *정 후자동으로 갱신된다는 문구 *관에만 써놓지말고 제품상세내용에 써놓으셔야죠 자동 갱신돼서 깜짝 놀랬음</t>
+  </si>
+  <si>
+    <t>드시모네 유산균여러 유산균 먹이다가 정착한 드시모네!!워낙 유명해서 믿고 구매했구요 처음엔 유아식에 섞여 먹이다가 이제는 가루제형을 잘 먹어서 매일 아침 일어나자마자 먼저 찾고 달라고 하더라구요!이제 키즈단계로도 업 해보려구요 ^^</t>
+  </si>
+  <si>
+    <t>잘먹어요항상잘먹고있습니다.</t>
+  </si>
+  <si>
+    <t>천*기</t>
+  </si>
+  <si>
+    <t>이*미</t>
+  </si>
+  <si>
+    <t>황*인</t>
+  </si>
+  <si>
+    <t>유*린</t>
+  </si>
+  <si>
+    <t>박*정</t>
+  </si>
+  <si>
+    <t>꾸준히 섭취해보려고요</t>
+  </si>
+  <si>
+    <t>편안해 하세요</t>
+  </si>
+  <si>
+    <t>넘 좋아요</t>
+  </si>
+  <si>
+    <t>4500 이 궁금합니다</t>
+  </si>
+  <si>
+    <t>만족합니다</t>
+  </si>
+  <si>
+    <t>좋아요~</t>
+  </si>
+  <si>
+    <t>꾸준히 섭취해보려고요먹어보니 몸에 잘맞는것 같아서 또박배송 신청합니다.</t>
+  </si>
+  <si>
+    <t>편안해 하세요**를 보고, **로 고생하시는 어머니께 권해드렸어요 꾸준히 드시더니 많이 나아지셨다 하세요.</t>
+  </si>
+  <si>
+    <t>넘 좋아요지금것 먹은 유산균중최고입니다.</t>
+  </si>
+  <si>
+    <t>4500 이 궁금합니다1200  먹고좋은 장환경에 체험을했습니다.4500 은 어떨지..드시모네 드시고 모두 건강 하세요.</t>
+  </si>
+  <si>
+    <t>만족합니다잘먹어서**봄좋겠습니다.</t>
+  </si>
+  <si>
+    <t>좋아요~저희는 부부가 **해야해서 전에는 캡슐로 되어있는 제품을 애용했는데 가루로 리뉴얼 돼서 더 좋네요.이 제품으로 또박배송 하려고 기존 제품 하려고 취소하고 다시해서 전보다 할인률이 작아졌는데캡슐로 이용하시던 다른분은 동일한 할인률로캡슐에서 이제품으로 변경해주셨더라구요.또박배송 취소 할때 상담을 충분하게 해주셨으면 더 좋았을 것 같네요.</t>
   </si>
   <si>
     <t>긍정</t>
-  </si>
-  <si>
-    <t>박*정</t>
-  </si>
-  <si>
-    <t>좋아요~</t>
-  </si>
-  <si>
-    <t>좋아요~저희는 부부가 **해야해서 전에는 캡슐로 되어있는 제품을 애용했는데 가루로 리뉴얼 돼서 더 좋네요.이 제품으로 또박배송 하려고 기존 제품 하려고 취소하고 다시해서 전보다 할인률이 작아졌는데캡슐로 이용하시던 다른분은 동일한 할인률로캡슐에서 이제품으로 변경해주셨더라구요.또박배송 취소 할때 상담을 충분하게 해주셨으면 더 좋았을 것 같네요.</t>
-  </si>
-  <si>
-    <t>김*구</t>
-  </si>
-  <si>
-    <t>정*주</t>
-  </si>
-  <si>
-    <t>** ** 받고</t>
-  </si>
-  <si>
-    <t>드시모네</t>
-  </si>
-  <si>
-    <t>** ** 받고진료하신 교수님이 추천해 주셨어요. 장 건강에 도움이 되는 부분은 분명 있습니다.</t>
-  </si>
-  <si>
-    <t>드시모네가격이 부담스럽지만 확실히 매일 먹는데 **가 나타나네요</t>
   </si>
 </sst>
 </file>
@@ -483,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,19 +555,19 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -537,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -546,30 +584,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -579,7 +597,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -587,71 +605,105 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>60315</v>
+        <v>60322</v>
       </c>
       <c r="B2">
-        <v>1298</v>
+        <v>756</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
-        <v>45272</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>60353</v>
+        <v>60263</v>
       </c>
       <c r="B3">
-        <v>1298</v>
+        <v>756</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>60215</v>
+      </c>
+      <c r="B4">
+        <v>756</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2">
-        <v>45278</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>60173</v>
+      </c>
+      <c r="B5">
+        <v>756</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45256</v>
       </c>
     </row>
   </sheetData>
@@ -661,7 +713,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -669,121 +721,160 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>60331</v>
+        <v>60258</v>
       </c>
       <c r="B2">
         <v>2099</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2">
-        <v>45275</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>60348</v>
-      </c>
-      <c r="B2">
-        <v>2107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45276</v>
+        <v>45265</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>60347</v>
+        <v>60246</v>
       </c>
       <c r="B3">
-        <v>2107</v>
+        <v>2099</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45265</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>60243</v>
+      </c>
+      <c r="B4">
+        <v>2099</v>
+      </c>
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45264</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>60182</v>
+      </c>
+      <c r="B5">
+        <v>2099</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45257</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>60159</v>
+      </c>
+      <c r="B6">
+        <v>2099</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45252</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>60331</v>
+      </c>
+      <c r="B7">
+        <v>2099</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="2">
-        <v>45276</v>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45275</v>
       </c>
     </row>
   </sheetData>
